--- a/mbs-perturbation/nano/randomForest/smote/nano-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/nano/randomForest/smote/nano-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6642599277978339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9061032863849765</v>
+        <v>0.9484536082474226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9507389162561576</v>
+        <v>0.7813163481953291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9933965161686631</v>
+        <v>0.8283691146774366</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9953488372093023</v>
+        <v>0.9947089947089947</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9976689976689977</v>
+        <v>0.9842931937172774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998244921240841</v>
+        <v>0.9942310773997115</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9905660377358491</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9689119170984456</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9882352941176472</v>
+        <v>0.9516539440203563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9984791377372214</v>
+        <v>0.9873537738368677</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6443768996960486</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9587628865979382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7822878228782287</v>
+        <v>0.9253731343283582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9134761621371421</v>
+        <v>0.9534479995726725</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7992277992277992</v>
+        <v>0.978021978021978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.971830985915493</v>
+        <v>0.9175257731958762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8771186440677966</v>
+        <v>0.9468085106382979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9699243977165025</v>
+        <v>0.9887158805619358</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8859039147737999</v>
+        <v>0.8932443339519152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.971830985915493</v>
+        <v>0.9535494898776775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9192099349977656</v>
+        <v>0.9178890261799237</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9750201411767225</v>
+        <v>0.9504235692097247</v>
       </c>
     </row>
   </sheetData>
